--- a/data/데이터 요약.xlsx
+++ b/data/데이터 요약.xlsx
@@ -9,14 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="종목별" sheetId="2" r:id="rId2"/>
     <sheet name="시설별" sheetId="3" r:id="rId3"/>
     <sheet name="지역(구)별" sheetId="5" r:id="rId4"/>
+    <sheet name="전체" sheetId="6" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">전체!$B$2:$B$148</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="221">
   <si>
     <t>종목</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -655,6 +659,151 @@
   </si>
   <si>
     <t>광주시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동구다목적체육관</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>동구국민체육센터 
+체육관</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인라인스케이트장</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>인공암벽장</t>
+  </si>
+  <si>
+    <t>덕흥동 족구장</t>
+  </si>
+  <si>
+    <t>유덕동 족구장</t>
+  </si>
+  <si>
+    <t>풍암생활체육공원
+배구장</t>
+  </si>
+  <si>
+    <t>파크 골프장</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>해오리공원 농구장</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>동구풋살경기장</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>동구지원교하부족구장</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>시체육회</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시 장애인 체육회</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕흥동 시각장애인
+축구장</t>
+  </si>
+  <si>
+    <t>염주파크골프장</t>
+  </si>
+  <si>
+    <t>장애인 탁구팀
+전용훈련장</t>
+  </si>
+  <si>
+    <t>역도훈련장</t>
+  </si>
+  <si>
+    <t>시설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>종목</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>육상</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>축구</t>
+  </si>
+  <si>
+    <t>야구</t>
+  </si>
+  <si>
+    <t>테니스</t>
+  </si>
+  <si>
+    <t>씨름</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>검도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>게이트볼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수영</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인라인 스케이트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>국궁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양궁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>승마</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케이트</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -795,7 +944,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -819,44 +968,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="hair">
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="hair">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -872,7 +995,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,29 +1050,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1237,7 +1381,7 @@
   <dimension ref="A2:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1416,8 +1560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2277,7 +2421,7 @@
   <dimension ref="A2:R28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3137,24 +3281,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R28"/>
+  <dimension ref="B1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="11.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
@@ -3166,28 +3310,35 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" s="3" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+    <row r="1" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:18" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
+      <c r="H2" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>196</v>
+      </c>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -3197,14 +3348,16 @@
       <c r="Q2"/>
       <c r="R2"/>
     </row>
-    <row r="3" spans="2:18" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="23" t="s">
+    <row r="3" spans="2:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="19" t="s">
+        <v>102</v>
+      </c>
       <c r="E3" s="20" t="s">
         <v>45</v>
       </c>
@@ -3214,9 +3367,15 @@
       <c r="G3" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
+      <c r="H3" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>197</v>
+      </c>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -3226,12 +3385,16 @@
       <c r="Q3"/>
       <c r="R3"/>
     </row>
-    <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="4"/>
+    <row r="4" spans="2:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="19" t="s">
+        <v>92</v>
+      </c>
       <c r="C4" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="18" t="s">
+        <v>120</v>
+      </c>
       <c r="E4" s="20" t="s">
         <v>46</v>
       </c>
@@ -3241,9 +3404,13 @@
       <c r="G4" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>198</v>
+      </c>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
@@ -3253,12 +3420,16 @@
       <c r="Q4"/>
       <c r="R4"/>
     </row>
-    <row r="5" spans="2:18" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
+    <row r="5" spans="2:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
+        <v>93</v>
+      </c>
       <c r="C5" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="19" t="s">
+        <v>141</v>
+      </c>
       <c r="E5" s="20" t="s">
         <v>47</v>
       </c>
@@ -3268,9 +3439,11 @@
       <c r="G5" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="21" t="s">
+        <v>199</v>
+      </c>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
@@ -3281,23 +3454,27 @@
       <c r="R5"/>
     </row>
     <row r="6" spans="2:18" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="4"/>
+      <c r="B6" s="18" t="s">
+        <v>183</v>
+      </c>
       <c r="C6" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="20" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="21" t="s">
+        <v>160</v>
+      </c>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
@@ -3307,24 +3484,26 @@
       <c r="Q6"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="2:18" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
+    <row r="7" spans="2:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="18" t="s">
+        <v>184</v>
+      </c>
       <c r="C7" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="20" t="s">
         <v>49</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="21"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
@@ -3334,24 +3513,26 @@
       <c r="Q7"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="2:18" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
+    <row r="8" spans="2:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="18" t="s">
+        <v>111</v>
+      </c>
       <c r="C8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="22" t="s">
         <v>64</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="21"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
@@ -3361,22 +3542,26 @@
       <c r="Q8"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="2:18" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
+    <row r="9" spans="2:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="18" t="s">
+        <v>112</v>
+      </c>
       <c r="C9" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26" t="s">
+        <v>78</v>
+      </c>
       <c r="F9" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
@@ -3387,21 +3572,25 @@
       <c r="R9"/>
     </row>
     <row r="10" spans="2:18" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
+      <c r="B10" s="18" t="s">
+        <v>113</v>
+      </c>
       <c r="C10" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26" t="s">
+        <v>79</v>
+      </c>
       <c r="F10" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
@@ -3412,21 +3601,25 @@
       <c r="R10"/>
     </row>
     <row r="11" spans="2:18" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
+      <c r="B11" s="18" t="s">
+        <v>114</v>
+      </c>
       <c r="C11" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="21" t="s">
+      <c r="D11" s="25"/>
+      <c r="E11" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
@@ -3437,19 +3630,25 @@
       <c r="R11"/>
     </row>
     <row r="12" spans="2:18" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="15"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="19" t="s">
+        <v>107</v>
+      </c>
       <c r="F12" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
+      <c r="G12" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
@@ -3459,20 +3658,26 @@
       <c r="Q12"/>
       <c r="R12"/>
     </row>
-    <row r="13" spans="2:18" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="24" t="s">
+    <row r="13" spans="2:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="15"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="18" t="s">
+        <v>121</v>
+      </c>
       <c r="F13" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
+      <c r="G13" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
@@ -3482,20 +3687,26 @@
       <c r="Q13"/>
       <c r="R13"/>
     </row>
-    <row r="14" spans="2:18" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
-      <c r="C14" s="24" t="s">
+    <row r="14" spans="2:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="15"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="18" t="s">
+        <v>122</v>
+      </c>
       <c r="F14" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
+      <c r="G14" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
@@ -3505,18 +3716,26 @@
       <c r="Q14"/>
       <c r="R14"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
-      <c r="C15" s="24" t="s">
+    <row r="15" spans="2:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="18"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
@@ -3526,16 +3745,26 @@
       <c r="Q15"/>
       <c r="R15"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="18"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
+    <row r="16" spans="2:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
@@ -3545,16 +3774,24 @@
       <c r="Q16"/>
       <c r="R16"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="18"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
+    <row r="17" spans="2:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="25"/>
+      <c r="C17" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
@@ -3564,16 +3801,24 @@
       <c r="Q17"/>
       <c r="R17"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
+    <row r="18" spans="2:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="25"/>
+      <c r="C18" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
@@ -3583,16 +3828,24 @@
       <c r="Q18"/>
       <c r="R18"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="18"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
+    <row r="19" spans="2:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="25"/>
+      <c r="C19" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
@@ -3602,16 +3855,24 @@
       <c r="Q19"/>
       <c r="R19"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="18"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
+    <row r="20" spans="2:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="25"/>
+      <c r="C20" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
@@ -3622,15 +3883,23 @@
       <c r="R20"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="18"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
@@ -3640,16 +3909,24 @@
       <c r="Q21"/>
       <c r="R21"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="18"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
+    <row r="22" spans="2:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="25"/>
+      <c r="C22" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
@@ -3659,16 +3936,24 @@
       <c r="Q22"/>
       <c r="R22"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="18"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
+    <row r="23" spans="2:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B23" s="25"/>
+      <c r="C23" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
@@ -3678,16 +3963,24 @@
       <c r="Q23"/>
       <c r="R23"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="18"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
+    <row r="24" spans="2:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="25"/>
+      <c r="C24" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
@@ -3697,16 +3990,24 @@
       <c r="Q24"/>
       <c r="R24"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="18"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
+    <row r="25" spans="2:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="25"/>
+      <c r="C25" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
@@ -3716,16 +4017,24 @@
       <c r="Q25"/>
       <c r="R25"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="18"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
+    <row r="26" spans="2:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B26" s="25"/>
+      <c r="C26" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
@@ -3736,15 +4045,23 @@
       <c r="R26"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="18"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
@@ -3754,16 +4071,22 @@
       <c r="Q27"/>
       <c r="R27"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="18"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
+    <row r="28" spans="2:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
@@ -3773,6 +4096,1126 @@
       <c r="Q28"/>
       <c r="R28"/>
     </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+    </row>
+    <row r="30" spans="2:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+    </row>
+    <row r="31" spans="2:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+    </row>
+    <row r="32" spans="2:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="30"/>
+      <c r="G33" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+    </row>
+    <row r="34" spans="2:10" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" s="30"/>
+      <c r="G34" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="F35" s="30"/>
+      <c r="G35" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+    </row>
+    <row r="37" spans="2:10" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G148"/>
+  <sheetViews>
+    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="B16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="B36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="B37" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="B43" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="B44" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="B45" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="B46" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="B48" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C78" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="B80" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="B84" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="B85" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="B86" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="B87" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C87" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="B88" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C89" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C90" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C91" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C92" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C93" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C94" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C95" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="B96" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C96" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C97" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="B98" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C98" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="B100" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C100" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B101" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C101" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B102" s="29"/>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B103" s="20"/>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B104" s="21"/>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B105" s="21"/>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B106" s="21"/>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B107" s="21"/>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B108" s="21"/>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B109" s="20"/>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B110" s="22"/>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B111" s="22"/>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B112" s="18"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="18"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="18"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="26"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="26"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="26"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="19"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="19"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="19"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="19"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="19"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="19"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="19"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="19"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="19"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" s="19"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" s="18"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" s="19"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="19"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="19"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" s="19"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="19"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="29"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="20"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" s="20"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" s="20"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" s="20"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" s="19"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" s="19"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" s="27"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" s="19"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" s="21"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" s="21"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="21"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" s="21"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" s="21"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" s="21"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/데이터 요약.xlsx
+++ b/data/데이터 요약.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="253">
   <si>
     <t>동구문화센터
 수영장</t>
@@ -741,505 +741,45 @@
     <t>덕흥동 족구장</t>
   </si>
   <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>,900(주말)</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,500(평)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>평일 주</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(20,000), 야(30,000)</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>유료</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>주말 주</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(30,000), 야(39,000)</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>전천후게이트볼장</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>무료</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>어른(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>1,000), 청소년(800), 어린이(500)</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>평일(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>33,000), 토.공휴일(42,900)</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>상무시민공원
 테니스장</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>062)360-7850</t>
-  </si>
-  <si>
-    <r>
-      <t>평일(30,000), 토.공휴일(40,000)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주광역시서구체육회 062)371-3310</t>
-  </si>
-  <si>
-    <t>광주광역시서구체육회 062)371-3310</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>062-604-2612</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>062-604-2002</t>
-  </si>
-  <si>
-    <t>광주 서구 금화로 240</t>
-  </si>
-  <si>
-    <t>광주 서구 덕흥동 146</t>
-  </si>
-  <si>
-    <t>광주 서구 금화로 240</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>유료</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>062)350-4562</t>
-  </si>
-  <si>
-    <t>광주 서구 풍암동 산 14-80</t>
-  </si>
-  <si>
-    <t>광주 광산구 산월동 35-1</t>
-  </si>
-  <si>
-    <t>광주광역시광산구시설관리공단 062)960-9924</t>
-  </si>
-  <si>
-    <t>062)960-9924</t>
-  </si>
-  <si>
-    <t>광주 광산구 하남동 499-3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>운남체육시설단지 축구장</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주 광산구 쌍암동 653-1</t>
-  </si>
-  <si>
-    <t>광주 광산구 운남동 82-1</t>
-  </si>
-  <si>
-    <t>무료</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주 북구 동림동 115-2</t>
-  </si>
-  <si>
-    <t>광주광역시 북구청 건설과(☏062-410-6793)</t>
-  </si>
-  <si>
-    <r>
-      <t>주중(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>20,000), 주말(30,000)</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주 북구 문흥동 1009-1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주광역시 북구 총무과 생활체육팀 062)410-6144</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>풍암생활체육공원 축구장</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>평일(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>15,000), 공휴일(15,000)</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>062)960-9924</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주 광산구 황룡동</t>
-  </si>
-  <si>
-    <t>광주 광산구 우산동 594</t>
-  </si>
-  <si>
-    <t>유료</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주 광산구 산월동 56</t>
-  </si>
-  <si>
-    <t>광주 광산구 운남동 6</t>
-  </si>
-  <si>
-    <t>062)960-9923</t>
-  </si>
-  <si>
-    <t>광주 북구 연제동 730</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주광역시 북구 총무과 생활체육팀 062)410-6144</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주광역시광산구시설관리공단 062)960-9923</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>주중(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>10,000), 주말(15,000)</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주 북구 임동 316</t>
-  </si>
-  <si>
-    <t>604-2812</t>
-  </si>
-  <si>
-    <t>361-6941</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주 광산구 신촌동</t>
-  </si>
-  <si>
-    <t>광주 서구 금화로 278</t>
-  </si>
-  <si>
-    <t>062-372-8145</t>
-  </si>
-  <si>
-    <t>광주 북구 중흥동 347-1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>520-2142</t>
-  </si>
-  <si>
-    <t>광주 남구 화산로 30</t>
-  </si>
-  <si>
-    <t>714-1394</t>
-  </si>
-  <si>
-    <t>광주 광산구 산월동</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>족구</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>첨단 생활 체육공원 족구장</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>광산구</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주 광산구 산월동 57</t>
-  </si>
-  <si>
-    <t>062-960-9924</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>광주</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>광산구</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>풍영철길로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 106-2</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주 광산구 하남동 451</t>
-  </si>
-  <si>
-    <t>062-960-9928</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>황룡강 서봉지구</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 장록습지</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>광주광역시 북구</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 추암로 190</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>광주 북구</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 각화동 46-1</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>평일 09:00 ~ 23:30
-공휴일 09:00 ~ 11:00</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주 북구 초당로7번길 5 매곡위드배드민턴</t>
-  </si>
-  <si>
-    <t>0507-1353-1530</t>
-  </si>
-  <si>
-    <t>일일권 4,000
-월권 40,000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>배드민턴</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>매곡위드배드민턴</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>북구</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>월요일 09:00 - 17:00
-평일 09:00 - 17:30 17시 40분까지 이용가능
-토요일 09:30 - 11:30 오전
-토요일 13:00 - 17:00 오후</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>062-380-6880</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>입장료 성인
-4,000원
-입장료 청소년
-3,500원
-입장료 어린이
-3,000원
-대회료
-3,000원</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1255,288 +795,14 @@
       </rPr>
       <t xml:space="preserve"> 주차장</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>06:00-22:30(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF141414"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>동계</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF141414"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF141414"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>년</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF141414"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF141414"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월말까지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF141414"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>광주</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>서구</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>금화로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 240 (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>풍암동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모아레포츠타운</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>062-681-0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">골프연습장 비용 : 1일권 14,000원, 
-1개월 150,000원(1일1회 70분)
-</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>가) 하절기(3월~11월) : 05:30 ~ 24:00
-나) 동절기(12월~2월) : 05:30 ~ 23:00</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주광역시 서구 금화로 278 (풍암동)</t>
-  </si>
-  <si>
-    <t> 062) 380-6870~1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1회권 13,000원(80분 / 250볼)
-60회(4개월) 150,000원
-60회(6개월) 180,000원
-180회(6개월) 410,000원
-210회(5개월)
-강습료 월 200,000원 ~ 250,000원(레슨프로, 강습시간별 차등)
-</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>주차, 예약, 무선 인터넷, 반려동물 동반, 남/녀 화장실 구분</t>
   </si>
   <si>
-    <t>매일 08:00 - 18:00</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>광주</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>광산구</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>동곡로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 59</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-3029-3628</t>
-  </si>
-  <si>
-    <r>
-      <t>1일체험</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 30,000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>골드런승마랜드</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1720,929 +986,79 @@
       </rPr>
       <t>편의시설</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>월요일 휴무</t>
-  </si>
-  <si>
-    <t>광주 광산구 동곡서호길 21-36</t>
-  </si>
-  <si>
-    <t>062-942-3400</t>
-  </si>
-  <si>
-    <t>상담후 결정</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>승마</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>홀스앤팜 승마클럽</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>본덕동</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>광산구</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cafe.naver.com/chumdanhorse.cafe</t>
-  </si>
-  <si>
-    <t>광주 북구 신용산길 94-23</t>
-  </si>
-  <si>
-    <t>010-7127-8880</t>
-  </si>
-  <si>
-    <t>상담후 결정</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>승마</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>광주 첨단승마클럽</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>용두동</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>북구</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>주차장
 화장실</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:00~16:00</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주 남구 회재로 1187</t>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>62-654-1114</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>강습 1시간(월4회)
-50,000원</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주 광산구 금봉로 22-41</t>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>62-941-0098</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cafe.naver.com/anarcheryfield</t>
-  </si>
-  <si>
-    <t>광주 북구 매곡동 491-3 중외공원내</t>
-  </si>
-  <si>
-    <t>062-525-2617</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>광주</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>남구</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중앙로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>110</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>번길</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 36 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사직공원</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>062-671-8383</t>
-  </si>
-  <si>
-    <t>광주 광산구 쌍암동</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>광주</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>광산구</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>장덕로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>96</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>번길</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 15</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>평일 06:00 - 20:30
-토요일 06:00 - 17:00
-일요일 09:00 - 17:00</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주 광산구 첨단중앙로 23</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>062-460-2015</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5,000원
- 1일 성인
-4,000원
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>1일 청소년
-3,000원
- 1일 어린이
-70,000원
- 1개월 성인
-60,000원
-수열 1개월 청소년</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주 광산구 무진대로211번길 28 빛고을국민체육센터</t>
-  </si>
-  <si>
-    <t>062-955-9101</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>수영장 성인
-4,000원
-헬스
-4,000원
-수영장어린이
-3,000원
-경로일일입장
-2,000원
-어린이다자녀
-2,400원</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>빛고을국민체육센터
 수영장</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주광역시 북구 북문대로 219 시립장애인복지관</t>
-  </si>
-  <si>
-    <t>062-513-0977</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> ○ 월~금요일 : 06:00~21:00
-○ 토요일 : 06:00~18:00
-○ 일요일(2, 4주), 공휴일 : 09:00~18:00
-○</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>매월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>첫번째</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>세번째</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일요일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>명절연휴</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bgsc.kr/</t>
-  </si>
-  <si>
-    <t>광주광역시 북구 중문로 62 58</t>
-  </si>
-  <si>
-    <t>062-267-8850</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>수영/1개월/성인
-60,000원
-수영/1개월/청소년
-50,000원
-수영/1개월/어린이
-40,000원
-헬스/1개월/고등~성인
-40,000원
-헬스/3개월/고등~성인
-100,000원
-헬스/5개월/고등~성인
-150,000원
-방학특강/1개월
-40,000원</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화문의</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.bitown.or.kr/home/utilization.php?mid=41</t>
-  </si>
-  <si>
-    <t>광주광역시 남구 덕남길 7</t>
-  </si>
-  <si>
-    <t>062-603-8899</t>
-  </si>
-  <si>
-    <t>일일권 3,000
-1개월권 35,000(자유수영)
-40,000(강습포함)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>평일 06:00~21:00 </t>
-  </si>
-  <si>
-    <t>http://www.ngyouth.co.kr/page/swim_schedule</t>
-  </si>
-  <si>
-    <t>광주 남구 봉선로 208</t>
-  </si>
-  <si>
-    <t>062-670-5000</t>
-  </si>
-  <si>
-    <t>수영장월이용료 초등학생이하
-40,000원
-수영장월이용료 중.고등학생
-50,000원
-수영장월이용료 일반인
-65,000원
-수영장월이용료 아쿠아로빅스
-67,000원
-수영장월이용료 실버수영
-55,000원
-일일 입장료
-일반인 4,000
-청소년 2,500
-초등학생이하 2,000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용 시간 월~금 06:.00~21:00
-매월 2,4째주 휴무
-법정공유일 휴장</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주 서구 치평동 상무자유로 73 여성발전센터 지하1층 수영장</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>062-371-8855</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>성인 4,000(3,000)
-청소년 2,500(2,000)
-어린이2,000(1,500)
--() 내서는 단체입장
-- 단체 15명이상</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.gotaketeam.com/</t>
-  </si>
-  <si>
-    <t>광주 서구 염화로 114</t>
-  </si>
-  <si>
-    <t>0507-1327-0970</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>테이크의 스킨스쿠버</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주 동구 산수동 519-4</t>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>62-351-0076</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 60,000
-(1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>청소년</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 45,000
-(1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>어린이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 35,000
-(1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>)
-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시간</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>성인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 4,000
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>청소년</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 3,500
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>어린이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 3,000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주광역시 동구 남문로 646 동구문화센터</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>062-225-4566/8700</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>상담사와 상담후 결정</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주 서구 상무누리로 123</t>
-  </si>
-  <si>
-    <t>- 주중(월~금) : 09:00 ~ 18:00 - 주말(토~일) : 09:00 ~ 18:00</t>
-  </si>
-  <si>
-    <t>광주 북구 동림동 115-1</t>
-  </si>
-  <si>
-    <t>062-410-6793</t>
-  </si>
-  <si>
-    <t>무료</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>동림동 친수공원 게이트볼장</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>부대시설 : 축구장 3면, 야구장 2면, 소프트볼장 4면, 게이트볼장 2면</t>
   </si>
   <si>
-    <t>각 종목별 연합회에 사전 문의 후 사용가능</t>
-  </si>
-  <si>
-    <t>광산구 산월동 45번지</t>
-  </si>
-  <si>
-    <t>062)960-9922~9924</t>
-  </si>
-  <si>
     <t>게이트볼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>첨단체육시설 게이트볼장</t>
   </si>
   <si>
     <t>북구</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주 북구 설죽로 526</t>
-  </si>
-  <si>
-    <t>광주 북구 운암동</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>지우어린이공원 게이트볼장</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>버들어린이공원 게이트볼장</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2654,19 +1070,11 @@
     <numFmt numFmtId="176" formatCode="#,##0&quot;개소&quot;"/>
     <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2733,21 +1141,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF555555"/>
       <name val="돋움"/>
@@ -2775,21 +1168,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF777777"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2802,38 +1181,11 @@
       <charset val="129"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF141414"/>
-      <name val="Dotum"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF141414"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF141414"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF444444"/>
       <name val="나눔고딕"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Dotum"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2849,12 +1201,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF5757"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Lato"/>
@@ -2863,13 +1209,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF404040"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF424242"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2925,7 +1264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -3121,30 +1460,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFE5E5E5"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -3165,377 +1486,481 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="좋음" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준_공공체육시설현황(육상장~빙상장)" xfId="3"/>
-    <cellStyle name="하이퍼링크" xfId="4" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3871,7 +2296,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="90" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3882,7 +2307,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="82"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="1" t="s">
         <v>39</v>
       </c>
@@ -3891,7 +2316,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="82"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
@@ -3981,7 +2406,7 @@
   <mergeCells count="1">
     <mergeCell ref="A8:A10"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -4843,7 +3268,7 @@
       <c r="R28" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>
@@ -5708,7 +4133,7 @@
       <c r="R28" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>
@@ -6671,7 +5096,7 @@
       <c r="J37" s="29"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>
@@ -7782,7 +6207,7 @@
       <c r="B148" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>
@@ -7793,8 +6218,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A2:K190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -7803,2957 +6228,2586 @@
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="22.5">
-      <c r="A3" s="43" t="s">
+      <c r="G2" s="48"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="91" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="69"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="57"/>
+      <c r="C4" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="120"/>
+      <c r="C5" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="149" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="89"/>
+    </row>
+    <row r="6" spans="1:7" ht="22.5">
+      <c r="A6" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="113"/>
+      <c r="C6" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="22.5">
+      <c r="A7" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="121"/>
+      <c r="C7" s="128" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="149" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" ht="22.5">
+      <c r="A8" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="113"/>
+      <c r="C8" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="22.5">
+      <c r="A9" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="121"/>
+      <c r="C9" s="128" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="149" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9" s="73"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="42" t="s">
+      <c r="B10" s="111"/>
+      <c r="C10" s="137" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="113"/>
+      <c r="C12" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.25">
+      <c r="A13" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="121"/>
+      <c r="C13" s="128" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="149" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13" s="76"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="96" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="149" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14"/>
+      <c r="G14" s="72"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="57"/>
+      <c r="C15" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="120"/>
+      <c r="C16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="149" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16" s="72"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="22.5">
+      <c r="A18" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="96" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="121" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19" s="150" t="s">
+        <v>239</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="72"/>
+    </row>
+    <row r="20" spans="1:7" ht="22.5">
+      <c r="A20" s="101" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" s="126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="68">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="96" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" s="121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" s="149" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24"/>
+      <c r="G24" s="72"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="104" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="98" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" s="121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="143" t="s">
+        <v>209</v>
+      </c>
+      <c r="D27" s="149" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27"/>
+      <c r="G27" s="72"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="111"/>
+      <c r="C28" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="22.5">
+      <c r="A29" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="46"/>
+      <c r="C29" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="69"/>
+    </row>
+    <row r="30" spans="1:7" ht="22.5">
+      <c r="A30" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="46"/>
+      <c r="C30" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D30" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>235</v>
-      </c>
-      <c r="G3" s="77" t="s">
-        <v>237</v>
-      </c>
-      <c r="H3" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A4" s="46" t="s">
+      <c r="G30" s="69"/>
+    </row>
+    <row r="31" spans="1:7" ht="22.5">
+      <c r="A31" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="125"/>
+      <c r="C31" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="22.5">
+      <c r="A32" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="118"/>
+      <c r="C32" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="149" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32" s="86"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="F4" s="78" t="s">
-        <v>236</v>
-      </c>
-      <c r="G4" s="77" t="s">
-        <v>239</v>
-      </c>
-      <c r="H4" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="22.5">
-      <c r="A5" s="46" t="s">
+      <c r="B33" s="117"/>
+      <c r="C33" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="117"/>
+      <c r="C34" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="117"/>
+      <c r="C35" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="22.5">
+      <c r="A36" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="22.5">
+      <c r="A37" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="149" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="72"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="117"/>
+      <c r="C38" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="149" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40"/>
+      <c r="G40" s="85"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="37" t="s">
+      <c r="B41" s="39"/>
+      <c r="C41" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="114"/>
+      <c r="C42" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="69"/>
+    </row>
+    <row r="43" spans="1:7" ht="22.5">
+      <c r="A43" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="114"/>
+      <c r="C43" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="69"/>
+    </row>
+    <row r="44" spans="1:7" ht="22.5">
+      <c r="A44" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="117"/>
+      <c r="C44" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="52" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="60"/>
+      <c r="C45" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="35"/>
+      <c r="C46" s="143" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="149" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46" s="87"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="117"/>
+      <c r="C47" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="22.5">
+      <c r="A48" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="22.5">
+      <c r="A49" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="149" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49" s="86"/>
+    </row>
+    <row r="50" spans="1:7" ht="22.5">
+      <c r="A50" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="117"/>
+      <c r="C50" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="22.5">
+      <c r="A51" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="117"/>
+      <c r="C51" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="52" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="117"/>
+      <c r="C52" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="52" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="117"/>
+      <c r="C53" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="64"/>
+      <c r="C54" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="D54" s="59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="128"/>
+      <c r="C55" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" s="149" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="112"/>
+      <c r="C56" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="59" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="34"/>
+      <c r="C57" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="D57" s="149" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57"/>
+      <c r="G57" s="89"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="54"/>
+      <c r="C58" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="54"/>
+      <c r="C59" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D59" s="52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="113"/>
+      <c r="C60" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" s="59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="121"/>
+      <c r="C61" s="128" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" s="149" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="98" t="s">
+        <v>230</v>
+      </c>
+      <c r="B62" s="121"/>
+      <c r="C62" s="128" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" s="150" t="s">
+        <v>228</v>
+      </c>
+      <c r="E62"/>
+      <c r="G62" s="72"/>
+    </row>
+    <row r="63" spans="1:7" ht="22.5">
+      <c r="A63" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="B63" s="126" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="22.5">
+      <c r="A64" s="94" t="s">
+        <v>196</v>
+      </c>
+      <c r="B64" s="132" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" s="149" t="s">
+        <v>56</v>
+      </c>
+      <c r="E64"/>
+      <c r="G64" s="72"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="57"/>
+      <c r="C65" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" s="59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="120"/>
+      <c r="C66" s="146" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" s="149" t="s">
+        <v>40</v>
+      </c>
+      <c r="F66"/>
+      <c r="G66" s="72"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="54"/>
+      <c r="C67" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="D67" s="52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="54"/>
+      <c r="C68" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="D68" s="52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="22.5">
+      <c r="A69" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="46"/>
+      <c r="C69" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D69" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" s="69"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="54"/>
+      <c r="C70" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70" s="52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="57"/>
+      <c r="C71" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" s="59" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="120"/>
+      <c r="C72" s="143" t="s">
+        <v>252</v>
+      </c>
+      <c r="D72" s="149" t="s">
+        <v>176</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72" s="72"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="46"/>
+      <c r="C73" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="D73" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73" s="71"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="D74" s="47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="22.5">
+      <c r="A75" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="125"/>
+      <c r="C75" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="D75" s="59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="22.5">
+      <c r="A76" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="118"/>
+      <c r="C76" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="D76" s="149" t="s">
+        <v>42</v>
+      </c>
+      <c r="G76" s="86"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="54"/>
+      <c r="C77" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="52" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="113"/>
+      <c r="C78" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="D78" s="59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="121"/>
+      <c r="C79" s="128" t="s">
+        <v>146</v>
+      </c>
+      <c r="D79" s="149" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+    </row>
+    <row r="80" spans="1:7" ht="22.5">
+      <c r="A80" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="46"/>
+      <c r="C80" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D80" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G80" s="69"/>
+    </row>
+    <row r="81" spans="1:7" ht="22.5">
+      <c r="A81" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="113"/>
+      <c r="C81" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="D81" s="59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="22.5">
+      <c r="A82" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="121"/>
+      <c r="C82" s="128" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" s="149" t="s">
+        <v>55</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+    </row>
+    <row r="83" spans="1:7" ht="22.5">
+      <c r="A83" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="46"/>
+      <c r="C83" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D83" s="47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="54"/>
+      <c r="C84" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="52" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="113"/>
+      <c r="C85" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="D85" s="59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="121"/>
+      <c r="C86" s="128" t="s">
+        <v>211</v>
+      </c>
+      <c r="D86" s="149" t="s">
+        <v>55</v>
+      </c>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" s="111"/>
+      <c r="C87" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="D87" s="52" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" s="54"/>
+      <c r="C88" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="52" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="22.5">
+      <c r="A89" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" s="125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D89" s="59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="22.5">
+      <c r="A90" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" s="118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="D90" s="149" t="s">
+        <v>42</v>
+      </c>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90" s="72"/>
+    </row>
+    <row r="91" spans="1:7" ht="22.5">
+      <c r="A91" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" s="125"/>
+      <c r="C91" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D91" s="59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="22.5">
+      <c r="A92" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" s="118"/>
+      <c r="C92" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D92" s="149" t="s">
+        <v>42</v>
+      </c>
+      <c r="G92" s="86"/>
+    </row>
+    <row r="93" spans="1:7" ht="22.5">
+      <c r="A93" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" s="54"/>
+      <c r="C93" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="D93" s="52" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="22.5">
+      <c r="A94" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="46"/>
+      <c r="C94" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="D94" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94" s="69"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" s="54"/>
+      <c r="C95" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="D95" s="52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="54"/>
+      <c r="C96" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="D96" s="52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="22.5">
+      <c r="A97" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" s="46"/>
+      <c r="C97" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D97" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="F5" s="79"/>
-      <c r="H5" s="75" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="22.5">
-      <c r="A6" s="46" t="s">
+    </row>
+    <row r="98" spans="1:7" ht="22.5">
+      <c r="A98" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="48" t="s">
+      <c r="B98" s="116"/>
+      <c r="C98" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="D98" s="47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" s="54"/>
+      <c r="C99" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D99" s="52" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="22.5">
+      <c r="A100" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B100" s="54"/>
+      <c r="C100" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D100" s="52" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" s="113"/>
+      <c r="C101" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="D101" s="59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" s="121"/>
+      <c r="C102" s="128" t="s">
+        <v>160</v>
+      </c>
+      <c r="D102" s="149" t="s">
+        <v>56</v>
+      </c>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102" s="73"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" s="117"/>
+      <c r="C103" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D103" s="52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B104" s="114"/>
+      <c r="C104" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="D104" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="F6" s="76" t="s">
-        <v>234</v>
-      </c>
-      <c r="G6" s="77" t="s">
-        <v>238</v>
-      </c>
-      <c r="H6" s="75" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="46" t="s">
+    </row>
+    <row r="105" spans="1:7" ht="22.5">
+      <c r="A105" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="B105" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="D105" s="59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="22.5">
+      <c r="A106" s="94" t="s">
+        <v>196</v>
+      </c>
+      <c r="B106" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D106" s="149" t="s">
+        <v>58</v>
+      </c>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107" s="112"/>
+      <c r="C107" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D107" s="59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" s="34"/>
+      <c r="C108" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D108" s="149" t="s">
+        <v>40</v>
+      </c>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108" s="72"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" s="114"/>
+      <c r="C109" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="D109" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G109" s="69"/>
+    </row>
+    <row r="110" spans="1:7" ht="22.5">
+      <c r="A110" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D110" s="47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B111" s="112"/>
+      <c r="C111" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="D111" s="59" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" s="34"/>
+      <c r="C112" s="147" t="s">
+        <v>148</v>
+      </c>
+      <c r="D112" s="149" t="s">
+        <v>185</v>
+      </c>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112" s="72"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" s="54"/>
+      <c r="C113" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="D113" s="52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="D7" s="48" t="s">
+      <c r="B114" s="116"/>
+      <c r="C114" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="D114" s="47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" s="113"/>
+      <c r="C115" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="D115" s="59" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="121"/>
+      <c r="C116" s="128" t="s">
+        <v>197</v>
+      </c>
+      <c r="D116" s="149" t="s">
+        <v>180</v>
+      </c>
+      <c r="E116"/>
+      <c r="F116" s="73"/>
+      <c r="G116"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="46"/>
+      <c r="C117" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D117" s="47" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="22.5">
-      <c r="A8" s="46" t="s">
+      <c r="G117" s="69"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" s="46"/>
+      <c r="C118" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D118" s="47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119" s="50"/>
+      <c r="C119" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D119" s="52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="37" t="s">
+      <c r="B120" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C120" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="D120" s="59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="B121" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C121" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D121" s="149" t="s">
+        <v>42</v>
+      </c>
+      <c r="E121"/>
+      <c r="G121" s="21"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B122" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D122" s="52" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B123" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D123" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F123" s="67"/>
+      <c r="G123" s="69"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="B124" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="D124" s="59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="94" t="s">
+        <v>196</v>
+      </c>
+      <c r="B125" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="D125" s="149" t="s">
+        <v>56</v>
+      </c>
+      <c r="E125"/>
+      <c r="G125" s="80"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B126" s="53"/>
+      <c r="C126" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="D126" s="52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B127" s="64"/>
+      <c r="C127" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D127" s="59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="B128" s="128"/>
+      <c r="C128" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="D128" s="149" t="s">
+        <v>56</v>
+      </c>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+    </row>
+    <row r="129" spans="1:7" ht="22.5">
+      <c r="A129" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B129" s="114"/>
+      <c r="C129" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D129" s="47" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="46" t="s">
+    <row r="130" spans="1:7" ht="22.5">
+      <c r="A130" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="D9" s="48" t="s">
+      <c r="B130" s="117"/>
+      <c r="C130" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D130" s="52" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131" s="114"/>
+      <c r="C131" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D131" s="47" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="46" t="s">
+    <row r="132" spans="1:7">
+      <c r="A132" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="117"/>
+      <c r="C132" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="D132" s="52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47" t="s">
+      <c r="B133" s="117"/>
+      <c r="C133" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" s="52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" s="39"/>
+      <c r="C134" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="D134" s="47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B135" s="39"/>
+      <c r="C135" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="D135" s="47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="B136" s="114"/>
+      <c r="C136" s="114" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D136" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="H10" s="73" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="22.5">
-      <c r="A11" s="46" t="s">
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="37" t="s">
+      <c r="B137" s="117"/>
+      <c r="C137" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="D137" s="52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="22.5">
+      <c r="A138" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="39"/>
+      <c r="C138" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D138" s="47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="22.5">
+      <c r="A139" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B139" s="114"/>
+      <c r="C139" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D139" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G139" s="69"/>
+    </row>
+    <row r="140" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A140" s="110" t="s">
+        <v>17</v>
+      </c>
+      <c r="B140" s="135"/>
+      <c r="C140" s="148" t="s">
+        <v>223</v>
+      </c>
+      <c r="D140" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="G140" s="69"/>
+    </row>
+    <row r="141" spans="1:7" customFormat="1">
+      <c r="A141" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" s="130"/>
+      <c r="C141" s="103" t="s">
+        <v>192</v>
+      </c>
+      <c r="D141" s="115" t="s">
+        <v>55</v>
+      </c>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="1:7" customFormat="1">
+      <c r="A142" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" s="25"/>
+      <c r="C142" s="75" t="s">
+        <v>192</v>
+      </c>
+      <c r="D142" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" customFormat="1">
+      <c r="A143" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="B143" s="133"/>
+      <c r="C143" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="D143" s="124" t="s">
+        <v>27</v>
+      </c>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="1:7" customFormat="1">
+      <c r="A144" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="B144" s="115"/>
+      <c r="C144" s="139" t="s">
+        <v>152</v>
+      </c>
+      <c r="D144" s="115" t="s">
+        <v>185</v>
+      </c>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="1:10" customFormat="1">
+      <c r="A145" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D145" t="s">
+        <v>185</v>
+      </c>
+      <c r="J145" s="82" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" customFormat="1" ht="22.5">
+      <c r="A146" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" s="134"/>
+      <c r="C146" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D146" s="134" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="22.5">
-      <c r="A12" s="46" t="s">
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="1:10" customFormat="1">
+      <c r="A147" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="F12" s="77" t="s">
-        <v>255</v>
-      </c>
-      <c r="G12" s="77" t="s">
-        <v>254</v>
-      </c>
-      <c r="H12" s="73" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="22.5">
-      <c r="A13" s="46" t="s">
+      <c r="B147" s="115"/>
+      <c r="C147" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="D147" s="115" t="s">
+        <v>176</v>
+      </c>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="1:10" customFormat="1">
+      <c r="A148" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="73" t="s">
-        <v>250</v>
-      </c>
-      <c r="F13" s="77" t="s">
-        <v>252</v>
-      </c>
-      <c r="G13" s="77" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="22.5">
-      <c r="A14" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="22.5">
-      <c r="A15" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="22.5">
-      <c r="A16" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="22.5">
-      <c r="A17" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="F17" s="77" t="s">
-        <v>245</v>
-      </c>
-      <c r="G17" s="77" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="22.5">
-      <c r="A18" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="22.5">
-      <c r="A19" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="73" t="s">
-        <v>227</v>
-      </c>
-      <c r="F19" s="77" t="s">
-        <v>244</v>
-      </c>
-      <c r="G19" s="77" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="73" t="s">
-        <v>227</v>
-      </c>
-      <c r="F20" s="77" t="s">
-        <v>258</v>
-      </c>
-      <c r="G20" s="77" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="F23" s="77" t="s">
-        <v>245</v>
-      </c>
-      <c r="G23" s="77" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="D24" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="73" t="s">
-        <v>227</v>
-      </c>
-      <c r="F24" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="G24" s="77" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="F25" s="77" t="s">
-        <v>271</v>
-      </c>
-      <c r="G25" s="81" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="73" t="s">
-        <v>240</v>
-      </c>
-      <c r="F26" s="77" t="s">
-        <v>245</v>
-      </c>
-      <c r="G26" s="77" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="73" t="s">
-        <v>240</v>
-      </c>
-      <c r="F27" s="77" t="s">
-        <v>233</v>
-      </c>
-      <c r="G27" s="77" t="s">
-        <v>238</v>
-      </c>
-      <c r="H27" s="75" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="F28" s="77" t="s">
-        <v>270</v>
-      </c>
-      <c r="G28" s="77" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="22.5">
-      <c r="A30" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="73" t="s">
-        <v>240</v>
-      </c>
-      <c r="F30" s="77" t="s">
-        <v>266</v>
-      </c>
-      <c r="G30" s="77" t="s">
-        <v>265</v>
-      </c>
-      <c r="H30" s="73" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="22.5">
-      <c r="A31" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="73" t="s">
-        <v>227</v>
-      </c>
-      <c r="F31" s="77" t="s">
-        <v>267</v>
-      </c>
-      <c r="G31" s="77" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="22.5">
-      <c r="A32" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="73" t="s">
-        <v>227</v>
-      </c>
-      <c r="F32" s="77" t="s">
-        <v>264</v>
-      </c>
-      <c r="G32" s="77" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="D33" s="48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="D34" s="48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="D35" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="F35" s="77" t="s">
-        <v>274</v>
-      </c>
-      <c r="G35" s="77" t="s">
-        <v>273</v>
-      </c>
-      <c r="H35" s="73" t="s">
-        <v>222</v>
-      </c>
-      <c r="I35" s="73" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="D36" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="H36" s="73" t="s">
-        <v>223</v>
-      </c>
-      <c r="I36" s="73" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="22.5">
-      <c r="A37" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="73" t="s">
-        <v>227</v>
-      </c>
-      <c r="F37" s="77" t="s">
-        <v>241</v>
-      </c>
-      <c r="G37" s="80" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="22.5">
-      <c r="A38" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="D38" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="73" t="s">
-        <v>227</v>
-      </c>
-      <c r="F38" s="76" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="D39" s="48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="D40" s="48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="D41" s="48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" s="77" t="s">
-        <v>278</v>
-      </c>
-      <c r="G42" s="77" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="D43" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="F43" s="77" t="s">
-        <v>276</v>
-      </c>
-      <c r="G43" s="77" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="22.5">
-      <c r="A44" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="39"/>
-      <c r="C44" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="22.5">
-      <c r="A45" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="39"/>
-      <c r="C45" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="22.5">
-      <c r="A46" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="22.5">
-      <c r="A47" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" s="48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="D48" s="48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="22.5">
-      <c r="A49" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="D49" s="48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50" s="51"/>
-      <c r="C50" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="D50" s="53" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" s="53" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" s="51"/>
-      <c r="C52" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="D52" s="53" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="D53" s="53" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="E54" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="H54" s="74">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" s="51"/>
-      <c r="C55" s="54" t="s">
-        <v>179</v>
-      </c>
-      <c r="D55" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="E55" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="H55" s="74">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" s="51"/>
-      <c r="C56" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="D56" s="53" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="D57" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="H57" s="73" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="22.5">
-      <c r="A58" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B58" s="55"/>
-      <c r="C58" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="D58" s="53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="22.5">
-      <c r="A59" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B59" s="55"/>
-      <c r="C59" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="D59" s="53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B60" s="55"/>
-      <c r="C60" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="D60" s="53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="22.5">
-      <c r="A61" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B61" s="55"/>
-      <c r="C61" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="D61" s="53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="22.5">
-      <c r="A62" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B62" s="55"/>
-      <c r="C62" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="D62" s="53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="22.5">
-      <c r="A63" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" s="55"/>
-      <c r="C63" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="D63" s="53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B64" s="55"/>
-      <c r="C64" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D64" s="53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65" s="55"/>
-      <c r="C65" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="D65" s="53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B66" s="55"/>
-      <c r="C66" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="D66" s="53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="22.5">
-      <c r="A67" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B67" s="55"/>
-      <c r="C67" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="D67" s="53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B68" s="55"/>
-      <c r="C68" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="D68" s="53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="22.5">
-      <c r="A69" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" s="55"/>
-      <c r="C69" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="D69" s="53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" s="55"/>
-      <c r="C70" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="22.5">
-      <c r="A71" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" s="55"/>
-      <c r="C71" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="D71" s="53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" s="55"/>
-      <c r="C72" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" s="53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" s="55"/>
-      <c r="C73" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B74" s="55"/>
-      <c r="C74" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74" s="53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B75" s="55"/>
-      <c r="C75" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="D75" s="53" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="22.5">
-      <c r="A76" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B76" s="55"/>
-      <c r="C76" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="D76" s="53" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B77" s="55"/>
-      <c r="C77" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="D77" s="53" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B78" s="55"/>
-      <c r="C78" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="D78" s="53" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B79" s="55"/>
-      <c r="C79" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="D79" s="53" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B80" s="55"/>
-      <c r="C80" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="D80" s="53" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B81" s="55"/>
-      <c r="C81" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D81" s="53" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B82" s="55"/>
-      <c r="C82" s="56" t="s">
-        <v>226</v>
-      </c>
-      <c r="D82" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="E82" s="73" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B83" s="55"/>
-      <c r="C83" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="D83" s="53" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B84" s="55"/>
-      <c r="C84" s="56" t="s">
-        <v>150</v>
-      </c>
-      <c r="D84" s="53" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B85" s="55"/>
-      <c r="C85" s="56" t="s">
-        <v>162</v>
-      </c>
-      <c r="D85" s="53" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B86" s="55"/>
-      <c r="C86" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="D86" s="53" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87" s="55"/>
-      <c r="C87" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="D87" s="53" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" s="55"/>
-      <c r="C88" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="D88" s="53" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89" s="55"/>
-      <c r="C89" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="D89" s="53" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B90" s="55"/>
-      <c r="C90" s="56" t="s">
-        <v>219</v>
-      </c>
-      <c r="D90" s="53" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91" s="55"/>
-      <c r="C91" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="D91" s="53" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B92" s="55"/>
-      <c r="C92" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="D92" s="53" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B93" s="55"/>
-      <c r="C93" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="D93" s="53" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B94" s="55"/>
-      <c r="C94" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="D94" s="53" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B95" s="58"/>
-      <c r="C95" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="D95" s="60" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B96" s="58"/>
-      <c r="C96" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="D96" s="60" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B97" s="58"/>
-      <c r="C97" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D97" s="60" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B98" s="58"/>
-      <c r="C98" s="61" t="s">
+      <c r="C148" s="78" t="s">
         <v>105</v>
-      </c>
-      <c r="D98" s="60" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B99" s="58"/>
-      <c r="C99" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="D99" s="60" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B100" s="58"/>
-      <c r="C100" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="D100" s="60" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B101" s="58"/>
-      <c r="C101" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="D101" s="60" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B102" s="58"/>
-      <c r="C102" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="D102" s="60" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="22.5">
-      <c r="A103" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="B103" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D103" s="60" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="B104" s="61"/>
-      <c r="C104" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="D104" s="60" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="B105" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="C105" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="D105" s="60" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="B106" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="C106" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="D106" s="60" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="22.5">
-      <c r="A107" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="B107" s="61"/>
-      <c r="C107" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="D107" s="60" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="22.5">
-      <c r="A108" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="B108" s="61"/>
-      <c r="C108" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="D108" s="60" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="22.5">
-      <c r="A109" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B109" s="61"/>
-      <c r="C109" s="61" t="s">
-        <v>170</v>
-      </c>
-      <c r="D109" s="60" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="22.5">
-      <c r="A110" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B110" s="61"/>
-      <c r="C110" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="D110" s="60" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="22.5">
-      <c r="A111" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B111" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="D111" s="60" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B112" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="D112" s="60" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="B113" s="58"/>
-      <c r="C113" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="D113" s="60" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="B114" s="58"/>
-      <c r="C114" s="65" t="s">
-        <v>148</v>
-      </c>
-      <c r="D114" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="E114" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="H114" s="74">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="B115" s="58"/>
-      <c r="C115" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="D115" s="60" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="B116" s="58"/>
-      <c r="C116" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="D116" s="60" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="B117" s="58"/>
-      <c r="C117" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="D117" s="60" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B118" s="58"/>
-      <c r="C118" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="D118" s="60" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="22.5">
-      <c r="A119" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="B119" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C119" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="D119" s="60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="B120" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C120" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="D120" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="E120" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="H120" s="74">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="22.5">
-      <c r="A121" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="B121" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="C121" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="D121" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="E121" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="H121" s="74">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="B122" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="C122" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="D122" s="60" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="22.5">
-      <c r="A123" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="B123" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="C123" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="D123" s="60" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="69" t="s">
-        <v>205</v>
-      </c>
-      <c r="B124" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C124" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="D124" s="60" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="B125" s="67"/>
-      <c r="C125" s="67" t="s">
-        <v>161</v>
-      </c>
-      <c r="D125" s="60" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B126" s="67"/>
-      <c r="C126" s="67" t="s">
-        <v>146</v>
-      </c>
-      <c r="D126" s="60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="22.5">
-      <c r="A127" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B127" s="67"/>
-      <c r="C127" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="D127" s="60" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="22.5">
-      <c r="A128" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B128" s="67"/>
-      <c r="C128" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="D128" s="60" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B129" s="67"/>
-      <c r="C129" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="D129" s="60" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B130" s="67"/>
-      <c r="C130" s="67" t="s">
-        <v>211</v>
-      </c>
-      <c r="D130" s="60" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B131" s="67"/>
-      <c r="C131" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="D131" s="60" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B132" s="67"/>
-      <c r="C132" s="67" t="s">
-        <v>192</v>
-      </c>
-      <c r="D132" s="60" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B133" s="67"/>
-      <c r="C133" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="D133" s="60" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="22.5">
-      <c r="A134" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B134" s="67"/>
-      <c r="C134" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="D134" s="60" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="A135" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B135" s="67"/>
-      <c r="C135" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="D135" s="60" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="B136" s="67"/>
-      <c r="C136" s="67" t="s">
-        <v>160</v>
-      </c>
-      <c r="D136" s="60" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="B137" s="67"/>
-      <c r="C137" s="67" t="s">
-        <v>155</v>
-      </c>
-      <c r="D137" s="60" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="B138" s="67"/>
-      <c r="C138" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="D138" s="60" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="22.5">
-      <c r="A139" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="B139" s="67"/>
-      <c r="C139" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="D139" s="60" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A140" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="B140" s="71"/>
-      <c r="C140" s="71" t="s">
-        <v>169</v>
-      </c>
-      <c r="D140" s="72" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" customFormat="1">
-      <c r="A141" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="C141" s="94" t="s">
-        <v>402</v>
-      </c>
-      <c r="D141" t="s">
-        <v>176</v>
-      </c>
-      <c r="G141" s="83" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" customFormat="1">
-      <c r="A142" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="C142" s="94" t="s">
-        <v>401</v>
-      </c>
-      <c r="D142" t="s">
-        <v>176</v>
-      </c>
-      <c r="G142" s="83" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" customFormat="1">
-      <c r="A143" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="C143" s="92" t="s">
-        <v>105</v>
-      </c>
-      <c r="D143" t="s">
-        <v>176</v>
-      </c>
-      <c r="G143" s="83" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" customFormat="1">
-      <c r="A144" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="C144" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="D144" t="s">
-        <v>176</v>
-      </c>
-      <c r="E144" s="101"/>
-      <c r="F144" s="101"/>
-      <c r="G144" s="114"/>
-      <c r="I144" s="113"/>
-    </row>
-    <row r="145" spans="1:10" customFormat="1">
-      <c r="A145" s="92" t="s">
-        <v>398</v>
-      </c>
-      <c r="C145" s="115" t="s">
-        <v>397</v>
-      </c>
-      <c r="D145" s="85" t="s">
-        <v>396</v>
-      </c>
-      <c r="E145" s="101" t="s">
-        <v>390</v>
-      </c>
-      <c r="F145" s="101" t="s">
-        <v>395</v>
-      </c>
-      <c r="G145" s="101" t="s">
-        <v>394</v>
-      </c>
-      <c r="I145" s="101" t="s">
-        <v>393</v>
-      </c>
-      <c r="J145" s="101" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" customFormat="1">
-      <c r="A146" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="C146" s="92" t="s">
-        <v>207</v>
-      </c>
-      <c r="D146" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" customFormat="1" ht="25.5">
-      <c r="A147" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="C147" s="92" t="s">
-        <v>391</v>
-      </c>
-      <c r="D147" t="s">
-        <v>176</v>
-      </c>
-      <c r="E147" s="101" t="s">
-        <v>390</v>
-      </c>
-      <c r="F147" s="101" t="s">
-        <v>389</v>
-      </c>
-      <c r="G147" s="114" t="s">
-        <v>388</v>
-      </c>
-      <c r="I147" s="113" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" customFormat="1">
-      <c r="A148" s="92" t="s">
-        <v>17</v>
-      </c>
-      <c r="C148" s="92" t="s">
-        <v>147</v>
       </c>
       <c r="D148" t="s">
         <v>176</v>
       </c>
-      <c r="G148" s="83" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" customFormat="1" ht="33.75">
-      <c r="A149" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="B149" s="92" t="s">
-        <v>9</v>
-      </c>
-      <c r="C149" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="D149" t="s">
-        <v>42</v>
-      </c>
-      <c r="E149" s="111" t="s">
-        <v>385</v>
-      </c>
-      <c r="F149" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="G149" s="108" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" customFormat="1" ht="264">
-      <c r="A150" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="B150" s="92"/>
-      <c r="C150" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="D150" t="s">
-        <v>42</v>
-      </c>
-      <c r="E150" s="91" t="s">
-        <v>382</v>
-      </c>
-      <c r="F150" s="73" t="s">
-        <v>381</v>
-      </c>
-      <c r="G150" s="112" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" customFormat="1" ht="22.5">
-      <c r="A151" s="92" t="s">
+      <c r="G148" s="72"/>
+    </row>
+    <row r="149" spans="1:10" customFormat="1" ht="22.5">
+      <c r="A149" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="122"/>
+      <c r="C149" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="D149" s="124" t="s">
+        <v>187</v>
+      </c>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="1:10" customFormat="1">
+      <c r="A150" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="B151" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="C151" s="92" t="s">
-        <v>379</v>
-      </c>
-      <c r="D151" t="s">
-        <v>42</v>
-      </c>
-      <c r="E151" s="111" t="s">
-        <v>320</v>
-      </c>
-      <c r="F151" s="83" t="s">
-        <v>378</v>
-      </c>
-      <c r="G151" s="83" t="s">
-        <v>377</v>
-      </c>
-      <c r="H151" s="110" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" customFormat="1" ht="146.25">
-      <c r="A152" s="92" t="s">
+      <c r="B150" s="127"/>
+      <c r="C150" s="144" t="s">
+        <v>173</v>
+      </c>
+      <c r="D150" s="134" t="s">
+        <v>27</v>
+      </c>
+      <c r="E150" s="1"/>
+      <c r="F150" s="67"/>
+      <c r="G150" s="1"/>
+    </row>
+    <row r="151" spans="1:10" customFormat="1">
+      <c r="A151" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="B152" s="92" t="s">
-        <v>36</v>
-      </c>
-      <c r="C152" s="92" t="s">
-        <v>144</v>
-      </c>
-      <c r="D152" t="s">
-        <v>42</v>
-      </c>
-      <c r="E152" s="111" t="s">
-        <v>375</v>
-      </c>
-      <c r="F152" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="G152" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="I152" s="91" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" customFormat="1" ht="409.5">
-      <c r="A153" s="92" t="s">
+      <c r="B151" s="122"/>
+      <c r="C151" s="140" t="s">
+        <v>221</v>
+      </c>
+      <c r="D151" s="124" t="s">
+        <v>176</v>
+      </c>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="1:10" customFormat="1" ht="22.5">
+      <c r="A152" s="102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" s="127"/>
+      <c r="C152" s="142" t="s">
+        <v>84</v>
+      </c>
+      <c r="D152" s="134" t="s">
+        <v>27</v>
+      </c>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="1:10" customFormat="1">
+      <c r="A153" s="102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" s="127" t="s">
+        <v>22</v>
+      </c>
+      <c r="C153" s="142" t="s">
+        <v>181</v>
+      </c>
+      <c r="D153" s="134" t="s">
+        <v>27</v>
+      </c>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="69"/>
+    </row>
+    <row r="154" spans="1:10" customFormat="1">
+      <c r="A154" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="119"/>
+      <c r="C154" s="138" t="s">
+        <v>104</v>
+      </c>
+      <c r="D154" s="115" t="s">
+        <v>176</v>
+      </c>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="1:10" customFormat="1">
+      <c r="A155" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="123"/>
+      <c r="C155" s="79" t="s">
+        <v>251</v>
+      </c>
+      <c r="D155" t="s">
+        <v>176</v>
+      </c>
+      <c r="G155" s="72"/>
+    </row>
+    <row r="156" spans="1:10" customFormat="1">
+      <c r="A156" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="B153" s="92"/>
-      <c r="C153" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="D153" t="s">
-        <v>42</v>
-      </c>
-      <c r="E153" s="91" t="s">
-        <v>371</v>
-      </c>
-      <c r="F153" s="83" t="s">
-        <v>370</v>
-      </c>
-      <c r="G153" s="83" t="s">
-        <v>369</v>
-      </c>
-      <c r="H153" s="110" t="s">
-        <v>368</v>
-      </c>
-      <c r="I153" s="107" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" customFormat="1" ht="78.75">
-      <c r="A154" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="B154" s="92"/>
-      <c r="C154" s="92" t="s">
-        <v>109</v>
-      </c>
-      <c r="D154" t="s">
-        <v>42</v>
-      </c>
-      <c r="E154" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="F154" s="109" t="s">
-        <v>365</v>
-      </c>
-      <c r="G154" s="108" t="s">
-        <v>364</v>
-      </c>
-      <c r="H154" t="s">
-        <v>363</v>
-      </c>
-      <c r="I154" s="85" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" customFormat="1" ht="270">
-      <c r="A155" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="B155" s="92"/>
-      <c r="C155" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="D155" t="s">
-        <v>42</v>
-      </c>
-      <c r="E155" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="F155" s="109" t="s">
-        <v>360</v>
-      </c>
-      <c r="G155" s="108" t="s">
-        <v>359</v>
-      </c>
-      <c r="H155" t="s">
-        <v>358</v>
-      </c>
-      <c r="I155" s="91" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" customFormat="1" ht="22.5">
-      <c r="A156" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="B156" s="92"/>
-      <c r="C156" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="D156" t="s">
-        <v>42</v>
-      </c>
-      <c r="F156" s="109" t="s">
-        <v>356</v>
-      </c>
-      <c r="G156" s="108" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" customFormat="1" ht="231">
-      <c r="A157" s="92" t="s">
+      <c r="B156" s="127"/>
+      <c r="C156" s="142" t="s">
+        <v>77</v>
+      </c>
+      <c r="D156" s="134" t="s">
+        <v>27</v>
+      </c>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="69"/>
+    </row>
+    <row r="157" spans="1:10" customFormat="1">
+      <c r="A157" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="B157" s="123"/>
+      <c r="C157" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="D157" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="G157" s="72"/>
+    </row>
+    <row r="158" spans="1:10" customFormat="1" ht="22.5">
+      <c r="A158" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="B157" s="92" t="s">
-        <v>9</v>
-      </c>
-      <c r="C157" s="92" t="s">
-        <v>354</v>
-      </c>
-      <c r="D157" t="s">
-        <v>42</v>
-      </c>
-      <c r="E157" s="91" t="s">
-        <v>353</v>
-      </c>
-      <c r="F157" s="107" t="s">
-        <v>352</v>
-      </c>
-      <c r="G157" s="83" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" customFormat="1" ht="297">
-      <c r="A158" s="92" t="s">
+      <c r="B158" s="122"/>
+      <c r="C158" s="99" t="s">
+        <v>90</v>
+      </c>
+      <c r="D158" s="124" t="s">
+        <v>180</v>
+      </c>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159" spans="1:10" customFormat="1">
+      <c r="A159" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="B158" s="92" t="s">
-        <v>9</v>
-      </c>
-      <c r="C158" s="92" t="s">
-        <v>140</v>
-      </c>
-      <c r="D158" t="s">
-        <v>42</v>
-      </c>
-      <c r="E158" s="91" t="s">
-        <v>350</v>
-      </c>
-      <c r="F158" s="107" t="s">
-        <v>349</v>
-      </c>
-      <c r="G158" s="106" t="s">
-        <v>348</v>
-      </c>
-      <c r="I158" s="91" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" customFormat="1">
-      <c r="A159" s="105" t="s">
-        <v>18</v>
-      </c>
-      <c r="C159" s="104" t="s">
-        <v>152</v>
-      </c>
-      <c r="D159" t="s">
+      <c r="B159" s="124"/>
+      <c r="C159" s="99" t="s">
+        <v>92</v>
+      </c>
+      <c r="D159" s="124" t="s">
+        <v>180</v>
+      </c>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+    </row>
+    <row r="160" spans="1:10" customFormat="1">
+      <c r="A160" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B160" s="115"/>
+      <c r="C160" s="109" t="s">
+        <v>141</v>
+      </c>
+      <c r="D160" s="115" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" customFormat="1">
-      <c r="A160" s="103" t="s">
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161" spans="1:11" customFormat="1">
+      <c r="A161" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C160" s="103" t="s">
-        <v>148</v>
-      </c>
-      <c r="D160" t="s">
-        <v>185</v>
-      </c>
-      <c r="G160" s="83" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" customFormat="1">
-      <c r="A161" s="103" t="s">
-        <v>17</v>
-      </c>
-      <c r="C161" s="103" t="s">
+      <c r="C161" s="83" t="s">
         <v>141</v>
       </c>
       <c r="D161" t="s">
         <v>185</v>
       </c>
-      <c r="G161" s="83" t="s">
-        <v>345</v>
-      </c>
+      <c r="G161" s="72"/>
     </row>
     <row r="162" spans="1:11" customFormat="1">
-      <c r="A162" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="C162" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D162" t="s">
-        <v>40</v>
-      </c>
-      <c r="F162" s="83" t="s">
-        <v>344</v>
-      </c>
-      <c r="G162" s="83" t="s">
-        <v>343</v>
-      </c>
+      <c r="A162" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="B162" s="115"/>
+      <c r="C162" s="95" t="s">
+        <v>147</v>
+      </c>
+      <c r="D162" s="115" t="s">
+        <v>176</v>
+      </c>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
     </row>
     <row r="163" spans="1:11" customFormat="1">
-      <c r="A163" s="103" t="s">
+      <c r="A163" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C163" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="D163" t="s">
+        <v>176</v>
+      </c>
+      <c r="G163" s="72"/>
+    </row>
+    <row r="164" spans="1:11" customFormat="1">
+      <c r="A164" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="B164" s="131" t="s">
+        <v>23</v>
+      </c>
+      <c r="C164" s="144" t="s">
+        <v>174</v>
+      </c>
+      <c r="D164" s="134" t="s">
+        <v>27</v>
+      </c>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="1:11" customFormat="1">
+      <c r="A165" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="C163" s="102" t="s">
-        <v>43</v>
-      </c>
-      <c r="D163" t="s">
-        <v>40</v>
-      </c>
-      <c r="F163" s="83" t="s">
-        <v>342</v>
-      </c>
-      <c r="G163" s="83" t="s">
-        <v>341</v>
-      </c>
-      <c r="H163" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" customFormat="1">
-      <c r="A164" s="92" t="s">
+      <c r="B165" s="103"/>
+      <c r="C165" s="103" t="s">
+        <v>142</v>
+      </c>
+      <c r="D165" s="115" t="s">
+        <v>56</v>
+      </c>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+    </row>
+    <row r="166" spans="1:11" customFormat="1" ht="33">
+      <c r="A166" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" s="75"/>
+      <c r="C166" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="D166" t="s">
+        <v>56</v>
+      </c>
+      <c r="G166" s="73"/>
+      <c r="J166" s="77" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" customFormat="1">
+      <c r="A167" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="C164" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="D164" t="s">
-        <v>40</v>
-      </c>
-      <c r="F164" s="85" t="s">
-        <v>339</v>
-      </c>
-      <c r="G164" s="83" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" customFormat="1" ht="22.5">
-      <c r="A165" s="92" t="s">
-        <v>196</v>
-      </c>
-      <c r="B165" s="89" t="s">
+      <c r="B167" s="103"/>
+      <c r="C167" s="103" t="s">
+        <v>169</v>
+      </c>
+      <c r="D167" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="J167" s="77"/>
+    </row>
+    <row r="168" spans="1:11" customFormat="1">
+      <c r="A168" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="B168" s="75"/>
+      <c r="C168" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="D168" t="s">
+        <v>191</v>
+      </c>
+      <c r="G168" s="74"/>
+      <c r="J168" s="81" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" customFormat="1" ht="22.5">
+      <c r="A169" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="B169" s="107"/>
+      <c r="C169" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="D169" s="134" t="s">
+        <v>30</v>
+      </c>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="69"/>
+      <c r="J169" s="81" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" customFormat="1" ht="22.5">
+      <c r="A170" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="B170" s="107"/>
+      <c r="C170" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="D170" s="134" t="s">
+        <v>24</v>
+      </c>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="69"/>
+    </row>
+    <row r="171" spans="1:11" customFormat="1" ht="22.5">
+      <c r="A171" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" s="107"/>
+      <c r="C171" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" s="134" t="s">
+        <v>24</v>
+      </c>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="K171" s="73" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" customFormat="1" ht="22.5">
+      <c r="A172" s="102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="127"/>
+      <c r="C172" s="142" t="s">
+        <v>80</v>
+      </c>
+      <c r="D172" s="134" t="s">
+        <v>27</v>
+      </c>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+    </row>
+    <row r="173" spans="1:11" customFormat="1">
+      <c r="A173" s="78" t="s">
+        <v>250</v>
+      </c>
+      <c r="B173" s="123"/>
+      <c r="C173" s="141" t="s">
+        <v>249</v>
+      </c>
+      <c r="D173" s="73" t="s">
+        <v>248</v>
+      </c>
+      <c r="F173" s="1"/>
+      <c r="G173" s="82"/>
+    </row>
+    <row r="174" spans="1:11" customFormat="1" ht="22.5">
+      <c r="A174" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" s="122"/>
+      <c r="C174" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="D174" s="124" t="s">
+        <v>187</v>
+      </c>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+    </row>
+    <row r="175" spans="1:11" customFormat="1">
+      <c r="A175" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="119"/>
+      <c r="C175" s="138" t="s">
+        <v>153</v>
+      </c>
+      <c r="D175" s="115" t="s">
+        <v>176</v>
+      </c>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+    </row>
+    <row r="176" spans="1:11" customFormat="1">
+      <c r="A176" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" s="119"/>
+      <c r="C176" s="95" t="s">
+        <v>207</v>
+      </c>
+      <c r="D176" s="115" t="s">
+        <v>176</v>
+      </c>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+    </row>
+    <row r="177" spans="1:7" customFormat="1">
+      <c r="A177" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" s="123"/>
+      <c r="C177" s="78" t="s">
+        <v>207</v>
+      </c>
+      <c r="D177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" customFormat="1">
+      <c r="A178" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="B178" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C165" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="D165" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" customFormat="1" ht="82.5">
-      <c r="A166" s="92" t="s">
-        <v>214</v>
-      </c>
-      <c r="B166" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="C166" s="92" t="s">
-        <v>202</v>
-      </c>
-      <c r="D166" t="s">
-        <v>58</v>
-      </c>
-      <c r="E166" s="91" t="s">
-        <v>337</v>
-      </c>
-      <c r="F166" s="85" t="s">
-        <v>336</v>
-      </c>
-      <c r="G166" s="83" t="s">
-        <v>335</v>
-      </c>
-      <c r="I166" s="101" t="s">
-        <v>334</v>
-      </c>
-      <c r="J166" s="91" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" customFormat="1" ht="33">
-      <c r="A167" s="92" t="s">
-        <v>332</v>
-      </c>
-      <c r="B167" s="89" t="s">
-        <v>331</v>
-      </c>
-      <c r="C167" s="92" t="s">
-        <v>330</v>
-      </c>
-      <c r="D167" s="85" t="s">
-        <v>329</v>
-      </c>
-      <c r="E167" s="91" t="s">
-        <v>328</v>
-      </c>
-      <c r="F167" s="83" t="s">
-        <v>327</v>
-      </c>
-      <c r="G167" s="83" t="s">
-        <v>326</v>
-      </c>
-      <c r="H167" t="s">
-        <v>325</v>
-      </c>
-      <c r="I167" s="101"/>
-      <c r="J167" s="91"/>
-    </row>
-    <row r="168" spans="1:11" customFormat="1" ht="33">
-      <c r="A168" s="92" t="s">
-        <v>324</v>
-      </c>
-      <c r="B168" s="89" t="s">
-        <v>323</v>
-      </c>
-      <c r="C168" s="92" t="s">
-        <v>322</v>
-      </c>
-      <c r="D168" s="85" t="s">
-        <v>321</v>
-      </c>
-      <c r="E168" s="91" t="s">
-        <v>320</v>
-      </c>
-      <c r="F168" s="83" t="s">
-        <v>319</v>
-      </c>
-      <c r="G168" s="83" t="s">
-        <v>318</v>
-      </c>
-      <c r="I168" s="100" t="s">
-        <v>317</v>
-      </c>
-      <c r="J168" s="99" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" customFormat="1">
-      <c r="A169" s="92" t="s">
-        <v>196</v>
-      </c>
-      <c r="B169" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="C169" s="92" t="s">
-        <v>315</v>
-      </c>
-      <c r="D169" t="s">
-        <v>57</v>
-      </c>
-      <c r="E169" s="85" t="s">
-        <v>314</v>
-      </c>
-      <c r="F169" s="83" t="s">
-        <v>313</v>
-      </c>
-      <c r="G169" s="83" t="s">
-        <v>312</v>
-      </c>
-      <c r="I169" s="99" t="s">
-        <v>311</v>
-      </c>
-      <c r="J169" s="99" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" customFormat="1" ht="409.5">
-      <c r="A170" s="92" t="s">
-        <v>196</v>
-      </c>
-      <c r="B170" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="C170" s="92" t="s">
-        <v>195</v>
-      </c>
-      <c r="D170" t="s">
-        <v>56</v>
-      </c>
-      <c r="E170" s="91" t="s">
-        <v>309</v>
-      </c>
-      <c r="F170" s="98" t="s">
-        <v>308</v>
-      </c>
-      <c r="G170" s="97" t="s">
-        <v>307</v>
-      </c>
-      <c r="I170" s="91" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" customFormat="1" ht="247.5">
-      <c r="A171" s="92" t="s">
-        <v>196</v>
-      </c>
-      <c r="B171" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="C171" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="D171" t="s">
-        <v>56</v>
-      </c>
-      <c r="E171" s="91" t="s">
-        <v>305</v>
-      </c>
-      <c r="F171" s="95" t="s">
-        <v>304</v>
-      </c>
-      <c r="G171" s="83" t="s">
-        <v>303</v>
-      </c>
-      <c r="I171" s="95" t="s">
-        <v>302</v>
-      </c>
-      <c r="K171" s="85" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" customFormat="1" ht="181.5">
-      <c r="A172" s="89" t="s">
-        <v>205</v>
-      </c>
-      <c r="B172" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="C172" s="94" t="s">
-        <v>209</v>
-      </c>
-      <c r="D172" t="s">
-        <v>184</v>
-      </c>
-      <c r="E172" s="91" t="s">
-        <v>300</v>
-      </c>
-      <c r="F172" s="83" t="s">
-        <v>299</v>
-      </c>
-      <c r="G172" s="83" t="s">
-        <v>273</v>
-      </c>
-      <c r="I172" s="93" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" customFormat="1">
-      <c r="A173" s="89" t="s">
+      <c r="C178" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="D178" t="s">
+        <v>42</v>
+      </c>
+      <c r="E178" s="1"/>
+      <c r="G178" s="72"/>
+    </row>
+    <row r="179" spans="1:7" customFormat="1">
+      <c r="A179" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="B173" s="89"/>
-      <c r="C173" s="89" t="s">
+      <c r="B179" s="107"/>
+      <c r="C179" s="102" t="s">
+        <v>224</v>
+      </c>
+      <c r="D179" s="134" t="s">
+        <v>24</v>
+      </c>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+    </row>
+    <row r="180" spans="1:7" customFormat="1" ht="22.5">
+      <c r="A180" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="B180" s="127"/>
+      <c r="C180" s="144" t="s">
+        <v>133</v>
+      </c>
+      <c r="D180" s="134" t="s">
+        <v>27</v>
+      </c>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="70"/>
+    </row>
+    <row r="181" spans="1:7" customFormat="1" ht="22.5">
+      <c r="A181" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="B181" s="107"/>
+      <c r="C181" s="102" t="s">
+        <v>128</v>
+      </c>
+      <c r="D181" s="134" t="s">
+        <v>24</v>
+      </c>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="69"/>
+    </row>
+    <row r="182" spans="1:7" customFormat="1" ht="22.5">
+      <c r="A182" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="B182" s="127"/>
+      <c r="C182" s="142" t="s">
+        <v>134</v>
+      </c>
+      <c r="D182" s="134" t="s">
+        <v>27</v>
+      </c>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+    </row>
+    <row r="183" spans="1:7" customFormat="1" ht="22.5">
+      <c r="A183" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="B183" s="103"/>
+      <c r="C183" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="D183" s="115" t="s">
+        <v>27</v>
+      </c>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+    </row>
+    <row r="184" spans="1:7" customFormat="1" ht="22.5">
+      <c r="A184" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="B184" s="75"/>
+      <c r="C184" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="D184" t="s">
+        <v>27</v>
+      </c>
+      <c r="G184" s="72"/>
+    </row>
+    <row r="185" spans="1:7" customFormat="1" ht="22.5">
+      <c r="A185" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="B185" s="107"/>
+      <c r="C185" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="D185" s="134" t="s">
+        <v>24</v>
+      </c>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+    </row>
+    <row r="186" spans="1:7" customFormat="1">
+      <c r="A186" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="B186" s="129"/>
+      <c r="C186" s="145" t="s">
+        <v>139</v>
+      </c>
+      <c r="D186" s="124" t="s">
+        <v>27</v>
+      </c>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+    </row>
+    <row r="187" spans="1:7" customFormat="1">
+      <c r="A187" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="B187" s="107"/>
+      <c r="C187" s="102" t="s">
+        <v>72</v>
+      </c>
+      <c r="D187" s="134" t="s">
+        <v>24</v>
+      </c>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="69"/>
+    </row>
+    <row r="188" spans="1:7" customFormat="1">
+      <c r="A188" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="B188" s="103"/>
+      <c r="C188" s="103" t="s">
         <v>161</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D188" s="115" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" customFormat="1">
-      <c r="A174" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="B174" s="89"/>
-      <c r="C174" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="D174" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" customFormat="1" ht="22.5">
-      <c r="A175" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="B175" s="89"/>
-      <c r="C175" s="89" t="s">
-        <v>145</v>
-      </c>
-      <c r="D175" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" customFormat="1" ht="22.5">
-      <c r="A176" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="B176" s="89"/>
-      <c r="C176" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="D176" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" customFormat="1">
-      <c r="A177" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="B177" s="89"/>
-      <c r="C177" s="92" t="s">
-        <v>159</v>
-      </c>
-      <c r="D177" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" customFormat="1">
-      <c r="A178" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="B178" s="89"/>
-      <c r="C178" s="89" t="s">
-        <v>211</v>
-      </c>
-      <c r="D178" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" customFormat="1">
-      <c r="A179" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="B179" s="89"/>
-      <c r="C179" s="89" t="s">
-        <v>163</v>
-      </c>
-      <c r="D179" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" customFormat="1">
-      <c r="A180" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="B180" s="89"/>
-      <c r="C180" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="D180" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" customFormat="1" ht="69">
-      <c r="A181" s="89" t="s">
-        <v>297</v>
-      </c>
-      <c r="B181" s="89"/>
-      <c r="C181" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="D181" s="85" t="s">
-        <v>295</v>
-      </c>
-      <c r="E181" s="88" t="s">
-        <v>294</v>
-      </c>
-      <c r="F181" s="83" t="s">
-        <v>293</v>
-      </c>
-      <c r="G181" s="83" t="s">
-        <v>292</v>
-      </c>
-      <c r="I181" s="91" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" customFormat="1">
-      <c r="A182" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="B182" s="89"/>
-      <c r="C182" s="89" t="s">
-        <v>197</v>
-      </c>
-      <c r="D182" t="s">
-        <v>180</v>
-      </c>
-      <c r="I182" s="85"/>
-    </row>
-    <row r="183" spans="1:9" customFormat="1" ht="22.5">
-      <c r="A183" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="B183" s="89"/>
-      <c r="C183" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="D183" t="s">
-        <v>52</v>
-      </c>
-      <c r="E183" s="84"/>
-      <c r="F183" s="84"/>
-      <c r="G183" s="85" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" customFormat="1" ht="17.25">
-      <c r="A184" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="B184" s="89"/>
-      <c r="C184" s="89" t="s">
-        <v>142</v>
-      </c>
-      <c r="D184" t="s">
-        <v>56</v>
-      </c>
-      <c r="E184" s="84"/>
-      <c r="F184" s="84"/>
-      <c r="G184" s="85" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" customFormat="1" ht="17.25">
-      <c r="A185" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="B185" s="89"/>
-      <c r="C185" s="89" t="s">
-        <v>160</v>
-      </c>
-      <c r="D185" t="s">
-        <v>56</v>
-      </c>
-      <c r="E185" s="84"/>
-      <c r="F185" s="84"/>
-      <c r="G185" s="85" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" customFormat="1" ht="17.25">
-      <c r="A186" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="B186" s="89"/>
-      <c r="C186" s="89" t="s">
-        <v>155</v>
-      </c>
-      <c r="D186" t="s">
-        <v>52</v>
-      </c>
-      <c r="E186" s="88" t="s">
-        <v>227</v>
-      </c>
-      <c r="F186" s="88" t="s">
-        <v>287</v>
-      </c>
-      <c r="G186" s="90" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" customFormat="1" ht="17.25">
-      <c r="A187" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="B187" s="89"/>
-      <c r="C187" s="89" t="s">
-        <v>107</v>
-      </c>
-      <c r="D187" t="s">
-        <v>56</v>
-      </c>
-      <c r="E187" s="88"/>
-      <c r="F187" s="88"/>
-    </row>
-    <row r="188" spans="1:9" customFormat="1" ht="22.5">
-      <c r="A188" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="B188" s="89"/>
-      <c r="C188" s="89" t="s">
-        <v>134</v>
-      </c>
-      <c r="D188" t="s">
-        <v>27</v>
-      </c>
-      <c r="E188" s="84"/>
-      <c r="F188" s="84"/>
-      <c r="G188" s="83" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" customFormat="1" ht="17.25">
-      <c r="A189" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="B189" s="89"/>
-      <c r="C189" s="89" t="s">
-        <v>169</v>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+    </row>
+    <row r="189" spans="1:7" customFormat="1">
+      <c r="A189" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B189" s="75"/>
+      <c r="C189" s="75" t="s">
+        <v>161</v>
       </c>
       <c r="D189" t="s">
-        <v>191</v>
-      </c>
-      <c r="E189" s="88" t="s">
-        <v>227</v>
-      </c>
-      <c r="F189" s="88" t="s">
-        <v>284</v>
-      </c>
-      <c r="G189" s="87" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" customFormat="1" ht="17.25">
-      <c r="A190" s="86" t="s">
-        <v>282</v>
-      </c>
-      <c r="C190" s="86" t="s">
-        <v>281</v>
-      </c>
-      <c r="D190" s="85" t="s">
-        <v>280</v>
-      </c>
-      <c r="E190" s="84"/>
-      <c r="F190" s="84"/>
-      <c r="G190" s="83" t="s">
-        <v>279</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" customFormat="1">
+      <c r="A190" s="100" t="s">
+        <v>238</v>
+      </c>
+      <c r="B190" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C190" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="D190" s="73" t="s">
+        <v>235</v>
+      </c>
+      <c r="F190" s="1"/>
+      <c r="G190" s="72"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <sortState ref="A3:I190">
+    <sortCondition ref="C3:C190"/>
+  </sortState>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>
